--- a/resources/script/mapping/sampleMapping/SampleMappings_09.xlsx
+++ b/resources/script/mapping/sampleMapping/SampleMappings_09.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sagportal-my.sharepoint.com/personal/ck_softwareag_com/Documents/intern/Products/Cumulocity/solutions/generic-mqtt-mapper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ck/work/git/cumulocity-dynamic-mqtt-mapper/resources/script/mapping/sampleMapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{C621436C-4BCA-7643-A7CC-79E78692C9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{160CA7D3-8096-A94E-A1C8-BD00C704A421}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB349791-53FC-4447-B615-F9EC4AFA6000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12160" yWindow="-24380" windowWidth="34560" windowHeight="21580" xr2:uid="{B5E387B2-3E90-884E-B546-D827ECD68714}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{B5E387B2-3E90-884E-B546-D827ECD68714}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$25</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="107">
   <si>
     <t>Sample Mapping #</t>
   </si>
@@ -852,12 +852,120 @@
 1.	[ * _TOPIC_LEVEL_[2] -&gt; id ]
 2.	[ customType-&gt;type ]</t>
   </si>
+  <si>
+    <t>{
+    "values":[
+        {
+            "key":"velocidad_cabezal",
+            "value":136.34
+        },
+        {
+            "key":"temperature",
+            "value":25
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">st:      v2/things/#
+tt:      v2/things/+
+tts:     v2/things/berlin_01
+1.  [* _TOPIC_LEVEL_[2] —&gt; source.id ]
+2.  [ $now() —&gt; time ]
+3.  [ values{key: {'Measurement':{'value':value, 'key': 'U'}}} —&gt; $ ]
+</t>
+  </si>
+  <si>
+    <t>{
+    "time":"2022-08-05T00:14:49.389+02:00",
+    "source":{
+        "id":"909090"
+    },
+    "type":"c8y_FlexibleMeasurement"
+}</t>
+  </si>
+  <si>
+    <t>A measasurement with two fragments:
+1. velocidad_cabezal
+2. temperature
+is created.
+It demonstrates the use of a substitution using "$" as a target. Tis results in merging the extracted contenct with the predefined target template.</t>
+  </si>
+  <si>
+    <r>
+      <t>Two measasurements with different fragments:
+1. velocidad_cabezal
+2. temperature
+are created.
+It demonstrates the use of a substitution using "$" as a target. Tis results in merging the extracted contenct with the predefined target template in combination with the attribute "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>expand2Array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>". See as well mapping 26.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">st:      v3/things/#
+tt:      v3/things/+
+tts:     v3/things/berlin_01
+1.  [* _TOPIC_LEVEL_[2] —&gt; source.id ]
+2.  [ $now() —&gt; time ]
+3.  [ values[].{key: {'Measurement':{'value':value, 'key': 'U'}}} ] (set attribute </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>expand2Array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = true)
+</t>
+    </r>
+  </si>
+  <si>
+    <t>st:      flexM/#
+tt:      flexM/+/gazoline
+tts:     flexM/berlin_01/gazoline
+sub:
+1.	[ deviceId-&gt;source.id ]
+2.	[ Measurementname &amp; "_type" —&gt; type ]
+3.	[ Measurementname = "Airsensor" ? {Seriesname:{"value": value, "unit": unit}} : null —&gt; Airsensor ]]
+4. [ Measurementname = "Liquidsensor" ? {Seriesname:{"value": value, "unit": unit}} : null —&gt; Liquidsensor ]
+5. [ $now() —&gt; time ]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -872,6 +980,20 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
@@ -1317,10 +1439,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="142" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="142" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1380,7 +1502,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1748,7 +1870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" ht="126" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="182" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>23</v>
       </c>
@@ -1756,7 +1878,7 @@
         <v>71</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>7</v>
@@ -1817,54 +1939,100 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="196" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="168" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
-        <v>51</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>88</v>
+        <v>26</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="196" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
+        <v>27</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="196" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
+        <v>51</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="196" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
         <v>52</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B25" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C25" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D25" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E25" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F25" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G25" s="17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F27" s="1"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
